--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.048438999999999</v>
+        <v>3.867218333333334</v>
       </c>
       <c r="N2">
-        <v>12.145317</v>
+        <v>11.601655</v>
       </c>
       <c r="O2">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="P2">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="Q2">
-        <v>0.6473467455796665</v>
+        <v>0.6183695005727778</v>
       </c>
       <c r="R2">
-        <v>5.826120710217</v>
+        <v>5.565325505155</v>
       </c>
       <c r="S2">
-        <v>0.004509864396802077</v>
+        <v>0.004146815913990309</v>
       </c>
       <c r="T2">
-        <v>0.00450986439680208</v>
+        <v>0.004146815913990309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,13 +623,13 @@
         <v>11.27122833333333</v>
       </c>
       <c r="N3">
-        <v>33.81368499999999</v>
+        <v>33.813685</v>
       </c>
       <c r="O3">
-        <v>0.4742054659960561</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="P3">
-        <v>0.4742054659960562</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="Q3">
         <v>1.802273167576111</v>
@@ -638,10 +638,10 @@
         <v>16.220458508185</v>
       </c>
       <c r="S3">
-        <v>0.01255587928303398</v>
+        <v>0.01208613142423692</v>
       </c>
       <c r="T3">
-        <v>0.01255587928303399</v>
+        <v>0.01208613142423692</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.219226333333334</v>
+        <v>5.654344666666667</v>
       </c>
       <c r="N4">
-        <v>9.657679000000002</v>
+        <v>16.963034</v>
       </c>
       <c r="O4">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="P4">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="Q4">
-        <v>0.5147553637754445</v>
+        <v>0.9041315969815557</v>
       </c>
       <c r="R4">
-        <v>4.632798273979001</v>
+        <v>8.137184372834</v>
       </c>
       <c r="S4">
-        <v>0.003586141282096062</v>
+        <v>0.006063150416105174</v>
       </c>
       <c r="T4">
-        <v>0.003586141282096064</v>
+        <v>0.006063150416105175</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9942166666666665</v>
+        <v>0.819389</v>
       </c>
       <c r="N5">
-        <v>2.98265</v>
+        <v>2.458167</v>
       </c>
       <c r="O5">
-        <v>0.04182889067409059</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="P5">
-        <v>0.0418288906740906</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="Q5">
-        <v>0.1589755764055555</v>
+        <v>0.1310205742296667</v>
       </c>
       <c r="R5">
-        <v>1.43078018765</v>
+        <v>1.179185168067</v>
       </c>
       <c r="S5">
-        <v>0.001107533631532361</v>
+        <v>0.0008786303363482032</v>
       </c>
       <c r="T5">
-        <v>0.001107533631532361</v>
+        <v>0.0008786303363482033</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.235549333333334</v>
+        <v>3.080288333333333</v>
       </c>
       <c r="N6">
-        <v>12.706648</v>
+        <v>9.240864999999999</v>
       </c>
       <c r="O6">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="P6">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="Q6">
-        <v>0.6772657502497779</v>
+        <v>0.4925391312627778</v>
       </c>
       <c r="R6">
-        <v>6.095391752248001</v>
+        <v>4.432852181365</v>
       </c>
       <c r="S6">
-        <v>0.004718300841212818</v>
+        <v>0.003302991343996701</v>
       </c>
       <c r="T6">
-        <v>0.00471830084121282</v>
+        <v>0.003302991343996702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.048438999999999</v>
+        <v>3.867218333333334</v>
       </c>
       <c r="N7">
-        <v>12.145317</v>
+        <v>11.601655</v>
       </c>
       <c r="O7">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="P7">
-        <v>0.1703267688113503</v>
+        <v>0.1566152977872902</v>
       </c>
       <c r="Q7">
-        <v>23.801388243728</v>
+        <v>22.73596439885334</v>
       </c>
       <c r="R7">
-        <v>214.212494193552</v>
+        <v>204.62367958968</v>
       </c>
       <c r="S7">
-        <v>0.1658169044145482</v>
+        <v>0.1524684818732999</v>
       </c>
       <c r="T7">
-        <v>0.1658169044145482</v>
+        <v>0.1524684818732999</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -933,25 +933,25 @@
         <v>11.27122833333333</v>
       </c>
       <c r="N8">
-        <v>33.81368499999999</v>
+        <v>33.813685</v>
       </c>
       <c r="O8">
-        <v>0.4742054659960561</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="P8">
-        <v>0.4742054659960562</v>
+        <v>0.4564642152831324</v>
       </c>
       <c r="Q8">
-        <v>66.26526459837332</v>
+        <v>66.26526459837334</v>
       </c>
       <c r="R8">
-        <v>596.3873813853598</v>
+        <v>596.38738138536</v>
       </c>
       <c r="S8">
-        <v>0.4616495867130221</v>
+        <v>0.4443780838588954</v>
       </c>
       <c r="T8">
-        <v>0.4616495867130222</v>
+        <v>0.4443780838588955</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.219226333333334</v>
+        <v>5.654344666666667</v>
       </c>
       <c r="N9">
-        <v>9.657679000000002</v>
+        <v>16.963034</v>
       </c>
       <c r="O9">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="P9">
-        <v>0.1354399607920677</v>
+        <v>0.2289906587711778</v>
       </c>
       <c r="Q9">
-        <v>18.92632093606934</v>
+        <v>33.24275175572267</v>
       </c>
       <c r="R9">
-        <v>170.336888424624</v>
+        <v>299.184765801504</v>
       </c>
       <c r="S9">
-        <v>0.1318538195099716</v>
+        <v>0.2229275083550726</v>
       </c>
       <c r="T9">
-        <v>0.1318538195099716</v>
+        <v>0.2229275083550727</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9942166666666665</v>
+        <v>0.819389</v>
       </c>
       <c r="N10">
-        <v>2.98265</v>
+        <v>2.458167</v>
       </c>
       <c r="O10">
-        <v>0.04182889067409059</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="P10">
-        <v>0.0418288906740906</v>
+        <v>0.03318376186120772</v>
       </c>
       <c r="Q10">
-        <v>5.845150904266666</v>
+        <v>4.817312478128001</v>
       </c>
       <c r="R10">
-        <v>52.60635813839999</v>
+        <v>43.355812303152</v>
       </c>
       <c r="S10">
-        <v>0.04072135704255823</v>
+        <v>0.03230513152485952</v>
       </c>
       <c r="T10">
-        <v>0.04072135704255823</v>
+        <v>0.03230513152485952</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.235549333333334</v>
+        <v>3.080288333333333</v>
       </c>
       <c r="N11">
-        <v>12.706648</v>
+        <v>9.240864999999999</v>
       </c>
       <c r="O11">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="P11">
-        <v>0.1781989137264352</v>
+        <v>0.1247460662971919</v>
       </c>
       <c r="Q11">
-        <v>24.90143833416534</v>
+        <v>18.10948331549334</v>
       </c>
       <c r="R11">
-        <v>224.112945007488</v>
+        <v>162.98534983944</v>
       </c>
       <c r="S11">
-        <v>0.1734806128852224</v>
+        <v>0.1214430749531952</v>
       </c>
       <c r="T11">
-        <v>0.1734806128852224</v>
+        <v>0.1214430749531952</v>
       </c>
     </row>
   </sheetData>
